--- a/biology/Botanique/Cypripedioideae/Cypripedioideae.xlsx
+++ b/biology/Botanique/Cypripedioideae/Cypripedioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cypripedioideae sont une sous-famille des Orchidaceae. Elle est acceptée par la classification phylogénétique. Elle comporte une centaine d'espèces réparties généralement en 5 genres, dont les fleurs présentent un labelle en forme de sabot (c'est le cas du sabot de Vénus appartenant au seul genre européen de cette famille, Cypripedium), deux étamines latérales fertiles et du pollen granuleux.
 </t>
@@ -511,18 +523,89 @@
           <t>Les genres à travers le monde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On accepte à l'heure actuelle 5 genres dans cette sous-famille :
-Cypripedium L. - seul genre représenté en Europe et Afrique[1], avec le Sabot de Vénus (Cypripedium calceolus)
+Cypripedium L. - seul genre représenté en Europe et Afrique, avec le Sabot de Vénus (Cypripedium calceolus)
 Mexipedium V.A.Albert &amp; M.W.Chase - Genre monospécifique, à l'heure actuelle.
 Paphiopedilum Pfitzer - représenté uniquement en Asie
 Phragmipedium Rolfe - représenté uniquement en Amérique (synonyme : Uropedium Lindl.)
-Selenipedium Rchb.f.
-Localisation en France
-Le seul représentant en France, le Sabot de Vénus, se trouve essentiellement en montagne, particulièrement les Alpes, mais aussi Jura, Vosges voire Moselle, région des Grands Causses, Pyrénées, plus exceptionnellement dans le sud-est.
-Espèces rencontrées en Amérique du Nord
-Cypripedium acaule - Cypripède acaule - sabot de la vierge
+Selenipedium Rchb.f.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cypripedioideae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypripedioideae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les genres à travers le monde</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Localisation en France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seul représentant en France, le Sabot de Vénus, se trouve essentiellement en montagne, particulièrement les Alpes, mais aussi Jura, Vosges voire Moselle, région des Grands Causses, Pyrénées, plus exceptionnellement dans le sud-est.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cypripedioideae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypripedioideae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les genres à travers le monde</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cypripedium acaule - Cypripède acaule - sabot de la vierge
 Cypripedium parviflorum - Cypripède parviflorum
 Cypripedium reginae - Cypripède royal
 Cypripedium arietinum - Cypripède tête de bélier
